--- a/bases/UPDATE/SCN/Gasto de consumo de gobierno general.xlsx
+++ b/bases/UPDATE/SCN/Gasto de consumo de gobierno general.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="Gasto de consumo de gobierno ge" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Gasto_de_consumo_de_gobierno_general" localSheetId="0">'Gasto de consumo de gobierno ge'!$A$1:$W$28</definedName>
+    <definedName name="Gasto_de_consumo_de_gobierno_general" localSheetId="0">'Gasto de consumo de gobierno ge'!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Gasto de consumo de gobierno general.IQY" name="Gasto de consumo de gobierno general" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\Gasto de consumo de gobierno general.IQY" name="Gasto de consumo de gobierno general" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,501226,501227,501228,501229,501230,501231,501232,501233,501234,501235,501236,501237,501238,501239,501240,501241,501242,501243,501244,501245,501246,539288,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="32">
   <si>
     <t>Cuentas nacionales &gt; Cuentas de bienes y servicios, base 2013 &gt; A precios corrientes &gt; Gastos de consumo de gobierno general, por sector de actividad económica</t>
   </si>
@@ -144,7 +144,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -208,7 +208,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 01/12/2021 9:53:25</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:34</t>
   </si>
 </sst>
 </file>
@@ -1040,14 +1040,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.9296875" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
     <col min="3" max="3" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.53125" bestFit="1" customWidth="1"/>
@@ -2403,12 +2403,12 @@
         <v>-3278.3690000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2020</v>
       </c>
       <c r="B21" s="1">
-        <v>2934771.577</v>
+        <v>2930093.0610000002</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -2453,10 +2453,10 @@
         <v>25</v>
       </c>
       <c r="Q21" s="1">
-        <v>809516.005</v>
+        <v>796664.45600000001</v>
       </c>
       <c r="R21" s="1">
-        <v>669307.25</v>
+        <v>707097.90500000003</v>
       </c>
       <c r="S21" s="1">
         <v>11272.6</v>
@@ -2468,42 +2468,86 @@
         <v>25</v>
       </c>
       <c r="V21" s="1">
-        <v>1390071.7819999999</v>
+        <v>1360454.16</v>
       </c>
       <c r="W21" s="1">
         <v>-3675.7359999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3044827.497</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1">
+        <v>21898.31</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3423.7550000000001</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="1">
+        <v>759.19799999999998</v>
+      </c>
+      <c r="L22" s="1">
+        <v>8119.683</v>
+      </c>
+      <c r="M22" s="1">
+        <v>64.22</v>
+      </c>
+      <c r="N22" s="1">
+        <v>28884.232</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>833578.495</v>
+      </c>
+      <c r="R22" s="1">
+        <v>736554.99699999997</v>
+      </c>
+      <c r="S22" s="1">
+        <v>12058.554</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1402952.2709999999</v>
+      </c>
+      <c r="W22" s="1">
+        <v>-3466.2179999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2530,7 +2574,7 @@
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2557,7 +2601,7 @@
     </row>
     <row r="25" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2582,27 +2626,54 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+    <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A22:W22"/>
     <mergeCell ref="A23:W23"/>
     <mergeCell ref="A24:W24"/>
     <mergeCell ref="A25:W25"/>
+    <mergeCell ref="A26:W26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
